--- a/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
+++ b/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Louisiana</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="C1" s="23" t="n">
